--- a/upload/file/DSSP.xlsx
+++ b/upload/file/DSSP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong Minh Hieu\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\dungcuso\upload\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -108,10 +108,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,7 +395,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -407,18 +407,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -445,13 +445,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>5000</v>
+        <v>5000000</v>
       </c>
       <c r="D3">
-        <v>5400</v>
+        <v>5400000</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -462,13 +462,13 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>5000</v>
+        <v>5000000</v>
       </c>
       <c r="D4">
-        <v>5400</v>
+        <v>5400000</v>
       </c>
       <c r="E4">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -479,13 +479,13 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>5000</v>
+        <v>5000000</v>
       </c>
       <c r="D5">
-        <v>5400</v>
+        <v>5400000</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -496,13 +496,13 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>5000</v>
+        <v>5000000</v>
       </c>
       <c r="D6">
-        <v>5400</v>
+        <v>5400000</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -513,13 +513,13 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>5000</v>
+        <v>5000000</v>
       </c>
       <c r="D7">
-        <v>5400</v>
+        <v>5400000</v>
       </c>
       <c r="E7">
-        <v>60</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
